--- a/Demon Hunter.xlsx
+++ b/Demon Hunter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhokuu/Documents/WoW Classes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80BD8CF5-A158-4444-A898-46A31B0F58F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57173640-140A-4349-8D86-F90194CA5EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{6BA9D0DA-2E10-CE4D-A1B6-FF1BF4806EDD}"/>
   </bookViews>
@@ -1969,7 +1969,7 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2688,7 +2688,7 @@
         <v>29</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="F35" s="11" t="s">
         <v>39</v>
